--- a/Dokumente/Projektabschluss/Vergleich_Aufwandsschätzung_Zeiterfassung.xlsx
+++ b/Dokumente/Projektabschluss/Vergleich_Aufwandsschätzung_Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\GitHub\258321_DKE_PR\Dokumente\Projektabschluss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5DFDFE-7F21-482C-BF68-B030334C57ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F51D87-2ACD-44FF-AEB6-AE5E99CBD708}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,9 +280,6 @@
     <t>in Stunden</t>
   </si>
   <si>
-    <t>Vergleich Gesamt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Planung und Organisation </t>
   </si>
   <si>
@@ -326,6 +323,9 @@
   </si>
   <si>
     <t>Implementieren Evaluierungsprogramm</t>
+  </si>
+  <si>
+    <t>tatsächlicher Aufwand</t>
   </si>
 </sst>
 </file>
@@ -704,6 +704,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -719,8 +721,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -837,6 +837,521 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Vergleich Aufwandsschätzung</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t> und Zeiterfassung</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergleich_Aufwandsschätzung!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aufwandsschätzung </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergleich_Aufwandsschätzung!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Planung und Organisation </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dokumentation </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementierung von </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Evaluierungsprogramm </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Datengenerator Rule Model Inheritance </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Datengenerator CBR </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Datenspeicherung </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>User Schnittstelle </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rule Model Inheritance Datengenerator Schnittstelle </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CBR Datengenerator Schnittstelle</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Vadalog Schnittstelle </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Schnittstelle Datenspeicherung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergleich_Aufwandsschätzung!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6433-4B51-A446-AA18A8AD341B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vergleich_Aufwandsschätzung!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tatsächlicher Aufwand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vergleich_Aufwandsschätzung!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Planung und Organisation </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dokumentation </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Implementierung von </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Evaluierungsprogramm </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Datengenerator Rule Model Inheritance </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Datengenerator CBR </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Datenspeicherung </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>User Schnittstelle </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rule Model Inheritance Datengenerator Schnittstelle </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CBR Datengenerator Schnittstelle</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Vadalog Schnittstelle </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Schnittstelle Datenspeicherung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vergleich_Aufwandsschätzung!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>177.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6433-4B51-A446-AA18A8AD341B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="437940992"/>
+        <c:axId val="437941320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="437940992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437941320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="437941320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437940992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1146,7 +1661,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1636,6 +2151,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -1672,7 +2227,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1713,6 +2268,509 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2231,7 +3289,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2739,6 +3797,47 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>2190750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF0D1E7-2A38-425D-8B33-3E1B736C7B2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>16995</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>13166</xdr:rowOff>
@@ -3200,18 +4299,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C071B15-F757-47C4-A94A-32D2FBDCD260}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
@@ -3227,7 +4327,7 @@
         <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -3247,7 +4347,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -3275,7 +4375,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -3305,8 +4405,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
-        <v>84</v>
+      <c r="B5" s="52" t="s">
+        <v>83</v>
       </c>
       <c r="F5">
         <f>SUMIF(Dusanic!$B$7:$B$42,Vergleich_Aufwandsschätzung!B5,Dusanic!$G$7:$G$42)</f>
@@ -3323,10 +4423,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -3354,10 +4454,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
         <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
       </c>
       <c r="C7">
         <v>140</v>
@@ -3385,10 +4485,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -3419,7 +4519,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -3447,10 +4547,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -3478,10 +4578,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <v>40</v>
@@ -3509,10 +4609,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12">
         <v>40</v>
@@ -3543,7 +4643,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13">
         <v>30</v>
@@ -3573,42 +4673,42 @@
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="57">
+      <c r="B14" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="52">
         <v>30</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="52">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="52">
         <f>SUMIF(Aistleithner!$B$7:$B$56,Vergleich_Aufwandsschätzung!B14,Aistleithner!$G$7:$G$56)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="52">
         <f>SUMIF(Dusanic!$B$7:$B$42,Vergleich_Aufwandsschätzung!B14,Dusanic!$G$7:$G$42)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="52">
         <f>SUMIF(Tabelle35[Art],Vergleich_Aufwandsschätzung!B14,Tabelle35[Dauer])</f>
         <v>40</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="52">
         <f>SUMIF(Tomic!$B$7:$B$44,Vergleich_Aufwandsschätzung!B14,Tomic!$G$7:$G$44)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="58">
+      <c r="B15" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="53">
         <f>SUM(C3:C14)</f>
         <v>610</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="53">
         <f>SUM(D3:D14)</f>
         <v>530.5</v>
       </c>
@@ -3632,6 +4732,8 @@
     <row r="16" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3694,7 +4796,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>24</v>
@@ -3719,7 +4821,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>25</v>
@@ -3744,7 +4846,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>26</v>
@@ -3769,7 +4871,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>27</v>
@@ -3845,7 +4947,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>30</v>
@@ -3920,7 +5022,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>32</v>
@@ -3995,7 +5097,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>37</v>
@@ -4145,7 +5247,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>40</v>
@@ -4295,7 +5397,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>43</v>
@@ -4320,7 +5422,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>48</v>
@@ -4345,7 +5447,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>48</v>
@@ -4370,7 +5472,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>49</v>
@@ -4395,7 +5497,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>49</v>
@@ -4420,7 +5522,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>51</v>
@@ -4445,7 +5547,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>50</v>
@@ -4470,7 +5572,7 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
         <v>49</v>
@@ -4495,7 +5597,7 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="30" t="s">
         <v>54</v>
@@ -4520,7 +5622,7 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>49</v>
@@ -4545,7 +5647,7 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>49</v>
@@ -4570,10 +5672,10 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D42" s="27">
         <v>43476</v>
@@ -4595,7 +5697,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>55</v>
@@ -4620,7 +5722,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>56</v>
@@ -4645,7 +5747,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>57</v>
@@ -4670,7 +5772,7 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>49</v>
@@ -4695,7 +5797,7 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="30" t="s">
         <v>63</v>
@@ -4720,7 +5822,7 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="30" t="s">
         <v>49</v>
@@ -4745,7 +5847,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" s="30" t="s">
         <v>64</v>
@@ -4770,7 +5872,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" s="30" t="s">
         <v>65</v>
@@ -4795,7 +5897,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" s="30" t="s">
         <v>66</v>
@@ -4820,7 +5922,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>67</v>
@@ -4845,7 +5947,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C53" s="30" t="s">
         <v>69</v>
@@ -4870,7 +5972,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" s="30" t="s">
         <v>70</v>
@@ -6097,7 +7199,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>24</v>
@@ -6122,7 +7224,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>25</v>
@@ -6147,7 +7249,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>26</v>
@@ -6223,7 +7325,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>30</v>
@@ -6248,7 +7350,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>32</v>
@@ -6323,7 +7425,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>37</v>
@@ -6423,7 +7525,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>42</v>
@@ -6448,7 +7550,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>41</v>
@@ -6523,7 +7625,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>47</v>
@@ -6548,7 +7650,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>46</v>
@@ -6573,7 +7675,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>46</v>
@@ -6598,7 +7700,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>46</v>
@@ -6623,7 +7725,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>48</v>
@@ -6648,7 +7750,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>46</v>
@@ -6673,7 +7775,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" s="30" t="s">
         <v>46</v>
@@ -6698,7 +7800,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>46</v>
@@ -6723,7 +7825,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>51</v>
@@ -6748,7 +7850,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>50</v>
@@ -6773,7 +7875,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>46</v>
@@ -6798,7 +7900,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>46</v>
@@ -6823,7 +7925,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>54</v>
@@ -6848,7 +7950,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>55</v>
@@ -6873,7 +7975,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="30" t="s">
         <v>46</v>
@@ -6898,7 +8000,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="30" t="s">
         <v>46</v>
@@ -6923,7 +8025,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>46</v>
@@ -6948,7 +8050,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>46</v>
@@ -8656,7 +9758,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>24</v>
@@ -8681,7 +9783,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>25</v>
@@ -8706,7 +9808,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>26</v>
@@ -8782,7 +9884,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>30</v>
@@ -8832,7 +9934,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>36</v>
@@ -8882,7 +9984,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>37</v>
@@ -8982,7 +10084,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>42</v>
@@ -9007,7 +10109,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>41</v>
@@ -9082,7 +10184,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>45</v>
@@ -9107,7 +10209,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>48</v>
@@ -9132,7 +10234,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>52</v>
@@ -9157,7 +10259,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>60</v>
@@ -9182,7 +10284,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>53</v>
@@ -9207,7 +10309,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>48</v>
@@ -9232,7 +10334,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>44</v>
@@ -9257,7 +10359,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>44</v>
@@ -9282,7 +10384,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>51</v>
@@ -9307,7 +10409,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>50</v>
@@ -9332,7 +10434,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>59</v>
@@ -9357,7 +10459,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>54</v>
@@ -9382,7 +10484,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>55</v>
@@ -9407,7 +10509,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>42</v>
@@ -9432,7 +10534,7 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="30" t="s">
         <v>58</v>
@@ -9457,7 +10559,7 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" s="30" t="s">
         <v>58</v>
@@ -9482,7 +10584,7 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>57</v>
@@ -9507,7 +10609,7 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>58</v>
@@ -9532,7 +10634,7 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>62</v>
@@ -9557,7 +10659,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>61</v>
@@ -9582,7 +10684,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>42</v>
@@ -9607,7 +10709,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>68</v>
@@ -9632,7 +10734,7 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
         <v>77</v>
@@ -9657,7 +10759,7 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" s="30" t="s">
         <v>74</v>
@@ -9682,7 +10784,7 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
         <v>75</v>
@@ -11293,7 +12395,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>24</v>
@@ -11318,7 +12420,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>25</v>
@@ -11343,7 +12445,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>26</v>
@@ -11419,7 +12521,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>30</v>
@@ -11469,7 +12571,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>32</v>
@@ -11569,7 +12671,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>37</v>
@@ -11669,7 +12771,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>42</v>
@@ -11694,7 +12796,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>41</v>
@@ -11769,7 +12871,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>48</v>
@@ -11794,7 +12896,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>46</v>
@@ -11819,7 +12921,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>46</v>
@@ -11844,7 +12946,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>46</v>
@@ -11869,7 +12971,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>48</v>
@@ -11894,7 +12996,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>46</v>
@@ -11919,7 +13021,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>46</v>
@@ -11944,7 +13046,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>46</v>
@@ -11969,7 +13071,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>51</v>
@@ -11994,7 +13096,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>50</v>
@@ -12019,7 +13121,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>46</v>
@@ -12044,7 +13146,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>46</v>
@@ -12069,7 +13171,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="30" t="s">
         <v>54</v>
@@ -12094,7 +13196,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="30" t="s">
         <v>55</v>
@@ -12119,7 +13221,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>46</v>
@@ -12144,7 +13246,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>46</v>
@@ -12169,7 +13271,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>46</v>
@@ -12194,7 +13296,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>46</v>
@@ -13866,12 +14968,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="9"/>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
@@ -13922,14 +15024,14 @@
       <c r="I5" s="49"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -13937,12 +15039,12 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="16"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>

--- a/Dokumente/Projektabschluss/Vergleich_Aufwandsschätzung_Zeiterfassung.xlsx
+++ b/Dokumente/Projektabschluss/Vergleich_Aufwandsschätzung_Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Documents\GitHub\258321_DKE_PR\Dokumente\Projektabschluss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F51D87-2ACD-44FF-AEB6-AE5E99CBD708}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E42F2C3-11C6-4B5E-AF2F-5E1526D8D65E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,9 +942,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Vergleich_Aufwandsschätzung!$B$3:$B$14</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Vergleich_Aufwandsschätzung!$B$3:$B$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Vergleich_Aufwandsschätzung!$B$3:$B$4,Vergleich_Aufwandsschätzung!$B$6:$B$14)</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Planung und Organisation </c:v>
                 </c:pt>
@@ -952,33 +959,30 @@
                   <c:v>Dokumentation </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Implementierung von </c:v>
+                  <c:v>Evaluierungsprogramm </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Evaluierungsprogramm </c:v>
+                  <c:v>Datengenerator Rule Model Inheritance </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Datengenerator Rule Model Inheritance </c:v>
+                  <c:v>Datengenerator CBR </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Datengenerator CBR </c:v>
+                  <c:v>Datenspeicherung </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Datenspeicherung </c:v>
+                  <c:v>User Schnittstelle </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>User Schnittstelle </c:v>
+                  <c:v>Rule Model Inheritance Datengenerator Schnittstelle </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Rule Model Inheritance Datengenerator Schnittstelle </c:v>
+                  <c:v>CBR Datengenerator Schnittstelle</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CBR Datengenerator Schnittstelle</c:v>
+                  <c:v>Vadalog Schnittstelle </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Vadalog Schnittstelle </c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>Schnittstelle Datenspeicherung</c:v>
                 </c:pt>
               </c:strCache>
@@ -986,41 +990,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Vergleich_Aufwandsschätzung!$C$3:$C$14</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Vergleich_Aufwandsschätzung!$C$3:$C$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Vergleich_Aufwandsschätzung!$C$3:$C$4,Vergleich_Aufwandsschätzung!$C$6:$C$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>140</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>30</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
@@ -1058,9 +1069,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Vergleich_Aufwandsschätzung!$B$3:$B$14</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Vergleich_Aufwandsschätzung!$B$3:$B$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Vergleich_Aufwandsschätzung!$B$3:$B$4,Vergleich_Aufwandsschätzung!$B$6:$B$14)</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Planung und Organisation </c:v>
                 </c:pt>
@@ -1068,33 +1086,30 @@
                   <c:v>Dokumentation </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Implementierung von </c:v>
+                  <c:v>Evaluierungsprogramm </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Evaluierungsprogramm </c:v>
+                  <c:v>Datengenerator Rule Model Inheritance </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Datengenerator Rule Model Inheritance </c:v>
+                  <c:v>Datengenerator CBR </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Datengenerator CBR </c:v>
+                  <c:v>Datenspeicherung </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Datenspeicherung </c:v>
+                  <c:v>User Schnittstelle </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>User Schnittstelle </c:v>
+                  <c:v>Rule Model Inheritance Datengenerator Schnittstelle </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Rule Model Inheritance Datengenerator Schnittstelle </c:v>
+                  <c:v>CBR Datengenerator Schnittstelle</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CBR Datengenerator Schnittstelle</c:v>
+                  <c:v>Vadalog Schnittstelle </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Vadalog Schnittstelle </c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>Schnittstelle Datenspeicherung</c:v>
                 </c:pt>
               </c:strCache>
@@ -1102,41 +1117,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Vergleich_Aufwandsschätzung!$D$3:$D$14</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Vergleich_Aufwandsschätzung!$D$3:$D$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Vergleich_Aufwandsschätzung!$D$3:$D$4,Vergleich_Aufwandsschätzung!$D$6:$D$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>177.25</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>116</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>28.75</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="7">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="10">
                   <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
@@ -4304,7 +4326,9 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
